--- a/K/instagram_crawling 2020-09-23 15.xlsx
+++ b/K/instagram_crawling 2020-09-23 15.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,3131 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>🎊지난주 주말🎊⠀담화맨이 제주도에서 백종원 선생님을 만나고 왔습니다!⠀맛남의 광장 [제주도편] 보신분!🙋🏻‍♂️🍊</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2020-02-03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>좋아요 1,808개</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Jeju</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>🎁1년 구독 기념 전용잔🎁⠀2020년 첫 번째 프로젝트이자 술담화의 첫 번째 오피셜 굿즈입니다.(술담화에서 직접 디자인 했답니다🙆🏻‍♀️!)⠀술을 마실 때 잔을 빼놓을 수 없잖아요! 그런 의미에서 1년 동안 담화박스를 구독해주신 분들에게 아담한 술잔을 선물했습니다❣⠀모두 황금 연휴 알차게 보내세요! 늘 감사합니다🙏⠀#술담화 #이천도자기공방 #단고재 #전용잔 #술잔 #술담화전용잔 #술담화굿즈 #1년구독이라뇨 #감사합니다!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>좋아요 575개</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['#술담화', '#이천도자기공방', '#단고재', '#전용잔', '#술잔', '#술담화전용잔', '#술담화굿즈', '#1년구독이라뇨', '#감사합니다!']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sulseam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>이번달 담화박스 속 꿀샘16 모두 잘 받으셨나요? 🥰꿀샘16 맛있게 마시는 꿀팁🌝1. 마시기 30분전 냉동고에 넣어 아주 차게 마신다!2. 안주는 크랜베리가 들어간 견과류 추천❤️3. 사랑하는 사람과 함께한 식사 후에 마무리로 즐긴다#술샘 #양조장 #우리술 #전통주 #술담화 #담화박스 #술 #술스타그램 #식전주 #식후주 #꿀 #리큐르 #꿀샘16 #꿀술 #꿀소주</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>좋아요 145개</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>농업회사법인 주)술샘</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['#술샘', '#양조장', '#우리술', '#전통주', '#술담화', '#담화박스', '#술', '#술스타그램', '#식전주', '#식후주', '#꿀', '#리큐르', '#꿀샘16', '#꿀술', '#꿀소주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>by_fulloflove</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>엽이가 신청한 술정기구독 😋이거 꽤 설레이는데?다음달은 뭘까 🤤-한달에 한번주제에 맞춰서 술을 보내주는데이 술의 유래, 어울리는 안주 등등 알려줘요!그저 마시기만 했던 술을이렇게 구독해보니남편이랑 하나하나 음미하면서알아가는 재미가 있더라구요 😉(가격도 좀더 착하구요~)-#애주가부부#술담화 #찾아오는인생술#술정기구독 #🍾🍶🍷🍸🍹🍺🥂</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>좋아요 114개</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['#애주가부부', '#술담화', '#찾아오는인생술', '#술정기구독', '#🍾🍶🍷🍸🍹🍺🥂']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>☘5월 담화박스 힌트☘⠀봄의 향기가 겨울잠에서 깨어난 게 어제만 같은데 벌써 5월을 향해 저물고 있습니다. 요즘 들어 달력이 거짓말을 하고 있는 거라는 막연한 생각을 하게 되네요!⠀[5월 1일 근로자의 날], [5월 5일 어린이날], [5월 8일 어버이날], [5월 15일 스승의날]⠀새로운 인연보다 내 주변 사람들에게 집중하는 5월은 단연  12달 중 특별한 존재감을 가지고 있습니다. 하지만 그 특별함에 어울릴 수 있는 담화박스에는 비교적 단순한 목소리가 담겼습니다.⠀"조금 더 많이 담자!🥳"⠀그리하여 안주가 들어갈 자리를 남기지 못한 담화박스를 구성했습니다. 375 mL 술 3병(4월 술이 375 mL X 2병)과 750 mL 1병 🎀총 4병🎀의 술이 들어가 있습니다. 실제로 안주가 포함되지 않으니 염두에 두시길 바랍니다! 대신 제품 카드에 들어가는 어울리는 안주 추천에 조금 더 힘써 보겠습니다!⠀✅ 첫 번째 술은 2병이 들어있습니다. 노간주 나무열매와 매실을 듬뿍 넣어 은은하면서 깔끔한 향이 있는 '진' 스타일의 증류주입니다.⠀✅ 두 번째 술은 1년 동안 숙성한 청매실로 만든 원액을 발효하여 만든 달콤상큼한 리큐르입니다.⠀✅ 네 번째 술은 매실로 만든 원액에 제주도 꿀을 첨가한 매실 와인입니다. 한국 와인의 묘미는 포도가 아닌 우리가 흔히 먹는 다양한 과일로 만들어진다는 점이죠.커피의 여운이 가시기도 전에 새로운 담화박스의 소식을 살포시 전하고 갑니다. 이번 달에도 함께 해주셔서 다시 한 번 감사하고, 5월에는 더 알찬 구성과 함께 만나 뵙길 바랍니다!🙏</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>좋아요 374개</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>euni_0125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-불금에 임하는 자세 🤩전통주 술담화 박스와 함께 7월 마무리---@sooldamhwa #술담화#담화박스#전통주구독#홈술#홈캠핑#베란다캠핑#베란다포차</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>좋아요 650개</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>운정 우리집</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스', '#전통주구독', '#홈술', '#홈캠핑', '#베란다캠핑', '#베란다포차']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>miamoa0128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7월의 #전통주 🍶와 &lt;#아무튼술&gt;📖.#술담화.#우리술.#능이주.#우렁이쌀청주.#가야곡왕주.#녹파주.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>좋아요 128개</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['#전통주', '#아무튼술&gt;📖.', '#술담화.', '#우리술.', '#능이주.', '#우렁이쌀청주.', '#가야곡왕주.', '#녹파주.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>zellabeeon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>오늘도 수분 오지게 빼고 왔지만 턱별하게 전통주로 수분좀 보충할렵니다정은씨가 직접해준 오리버섯볶음과 함께하겠습니다 ❤정은씨 감사합니다 🙈#애인 #야식 #술담화 #전통주 #녹파주 #운동 #운동하는커플 #수분보충(?) #오리버섯볶음</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>좋아요 136개</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>독립문</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['#애인', '#야식', '#술담화', '#전통주', '#녹파주', '#운동', '#운동하는커플', '#수분보충(?)', '#오리버섯볶음']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010200_kim</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이번달 술담화이번 술담화는 10도 이하 냉장보관이라 시원하게 잘 배달뜨구와지기전에 마셔야되는 션한 술삼양춘 탁주/청주/약주 시리즈#술담화 #삼양춘탁주 #삼양춘약주 #삼양춘청주</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>좋아요 1개</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['#술담화', '#삼양춘탁주', '#삼양춘약주', '#삼양춘청주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>minimal_jj_</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>이번달은 추석선물을 받은느낌🎁우리가 좋아하는 청주와 탁주가 다있어서 더욱기대된다💕추석연휴에 하나씩 오픈해야지😆🎉#10월🍁 #이번달담화박스 #술담화 #추석 #삼양춘 #술스타그램 #구독 #내돈내산 #랜덤박스 #부부스타그램 #취미</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>좋아요 7개</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['#10월🍁', '#이번달담화박스', '#술담화', '#추석', '#삼양춘', '#술스타그램', '#구독', '#내돈내산', '#랜덤박스', '#부부스타그램', '#취미']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ej_inna</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>집에서 홀짝홀짝하기 딱 됴타~😆--#술담화 #술정기구독 #삼양춘 #일상 #데일리 #술스타그램</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>좋아요 9개</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술정기구독', '#삼양춘', '#일상', '#데일리', '#술스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jikimeee</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>청주 / 약주 / 탁주유튜브 프로?레드?보다 술담화 먼저 구독#술담화 #담화박스 #찾아오는인생술</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>좋아요 12개</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스', '#찾아오는인생술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>jongsu89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>#술담화 #술담화박스  9월의 술담화 박스!! 잘 마시겠습니다!!!</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>좋아요 17개</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bubble_stagram</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>뭐랑 먹을까? 두번째 술담화.맛있는 야식이랑 한병한병 야금야금 먹는 맛 최고👍🏻#술담화 #술도시켜먹는시대 #술스타그램 #전통주#술 #술안주</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>좋아요 39개</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술도시켜먹는시대', '#술스타그램', '#전통주', '#술', '#술안주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>youngseok.d.yun</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이번 추석 차례 술.술담화에서 주문하다.#술담화 #차례 #추석 #k명절</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>좋아요 29개</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['#술담화', '#차례', '#추석', '#k명절']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kkonarum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>오늘 술정기배송 오는 날🥂 #독도새우 안주사서 눈나난나집으로-#찾아오는인생술 네가 오후 네시에 온다면 나는 세시부터 행복해질꺼야🥰</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>좋아요 64개</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['#독도새우', '#찾아오는인생술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>drinker100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>★☆★포르투에서 너무 맛있게 먹었던 문어샐러드...😍 흉내는 내봤지만 뭐 그래도 비슷하다 ㅎㅎㅎ#집이서#소소한#술상#문어샐러드#술스타그램#안주#안주스타그램#꿀샘#술담화#담화박스</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>좋아요 137개</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['#집이서', '#소소한', '#술상', '#문어샐러드', '#술스타그램', '#안주', '#안주스타그램', '#꿀샘', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dadada__story</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>코로나 블루로 우울한 시기! 내 삶의 작은 활력을 가져다주는 정기구독 서비스 추천💛❤ 이번 기회에 한 번 신청해보는 건 어떨까요~?--#코로나 #코로나블루 #정기구독 #활력 #위로 #퍼플독 #플라이북 #꾸까 #술담화 #차차함 #해피해피케이크 #핀즐 #필리 #현대생활식서 #꽃 #와인 #술 #구독 #구독서비스 #구독서비스추천 #구독 #차 #케이크 #그림 #영양제</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>좋아요 25개</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['#코로나', '#코로나블루', '#정기구독', '#활력', '#위로', '#퍼플독', '#플라이북', '#꾸까', '#술담화', '#차차함', '#해피해피케이크', '#핀즐', '#필리', '#현대생활식서', '#꽃', '#와인', '#술', '#구독', '#구독서비스', '#구독서비스추천', '#구독', '#차', '#케이크', '#그림', '#영양제']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sonsulhyeon0928</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>전통주 구독 “술담화” 9월의 전통주는 “삼양춘” :-) 복순도가를 능가하는 퀄리티 굿굿:-)#술담화#술담화구독#9월#삼양춘#삼양춘약주#삼양춘탁주</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>좋아요 13개</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화구독', '#9월', '#삼양춘', '#삼양춘약주', '#삼양춘탁주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cho_hodu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>휴가를 나오니 선물이 와있다.#술담화</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>좋아요 25개</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>추석 연휴가 10일도 채 남지 않았습니다🌝 오늘은 추석의 대표 음식들과 함께 어울리는 전통주를 소개합니다🐰#우리술오늘 에 곁들이는 송편과 약과달짝지근한 전통 디저트에는 찹쌀의 진득한 단맛이 함께 우러나오는 술과 함께해요. 단 맛을 헤치지 않아 찰떡궁합을 자랑하는 것은 물론, 술을 마시지 못하는 사람도 부드럽게 마실 수 있는 술이랍니다🥟#택이 에 곁들이는 모둠전기름을 충분히 두른 후 노릇노릇하게 지진 각종 전을 떠올리면 막걸리가 절로 생각납니다. 그중에서도 택이는 산미와 단 맛의 밸런스가 조화롭게 이뤄지는 술이라 육전 산적 생선전 채소전 등 어떤 전이든 무난하게 잘 어울린답니다🍳#이도 와 함께하는 수육소주는 다양한 음식들과 합이 잘 맞습니다. 육류 중에서는 기름기를 쫙 뺀 수육, 맛깔스러운 김치와 함께 곁들이는 보쌈, 불판 위에 구운 삼겹살에도 어울리는 것이 소주입니다. 소주 중에서도 온도에 따라 곡물의 풍미와 깔끔한 맛을 모두 느낄 수 있는 이도를 추천합니다🥩#수제탁주바랑 과 함께 먹는 갈비찜바랑 탁주는 신맛과 달콤한 맛이 한쪽에 치우침 없이 강한 개성을 자랑하는 탁주입니다. 그렇기 때문에 갈비찜의 달콤한 맛과도 결을 함께하는 동시에 산미로 입을 깔끔하게 씻어줘 질리지 않게 음식을 즐길 수 있습니다🥩#LESDOM스파클링로제와인 과 곁들이는 햇과일와인과 함께할 음식 중 햇과일만큼 무난하고 상큼한 것이 있을까요? LESDOM 로제와인은 은은한 과일향이 지속적으로 풍기는 것은 물론, 드라이한 편에 속해 달콤한 과일과도 합이 정말 좋습니다🍎</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>외 248명</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['#우리술오늘', '#택이', '#이도', '#수제탁주바랑', '#LESDOM스파클링로제와인']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bar_ddustro</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>〰️패키지부터 넘 귀여워 버리는 우렁이쌀 🙈예전에 어딘가에서 먹은 기억이 있는데 -우리 집에 있다니 !!!! (#술담화 👍🏻👍🏻)주막느낌으로 #감자전 #소라문어숙회 했오요 🐚🐙간만에 감자 갈아서 감자100% 감자전!! 쫀득함이 다르죵 👌🏻감자 2개만 사서 했는데... 역시 넘나맛있공,,,아쉬워서 다시 감자 박스루 데려왔어용 🤣</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>좋아요 144개</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['#술담화', '#감자전', '#소라문어숙회']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bar_ddustro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>#제품협찬〰️지난 2주간 너무 바빠서 인스타도 잘 못했는데-협찬은 사실 조심스럽지만,,, 완전 제 인스타와 철떡!넘넘 반해버린 #술담화 🙈저같은 애주가들은 지나칠수없오요🤍🤍🤍패키지랑 일러스트 디자인부터 완전 깔끄미 취저에 -우리 나라 전통주도로도 이렇게 멋진 한상이 가능하구나생각하게 해주는 넘 좋은 구성 👍🏻💕〰️오늘은 치즈랑 잘어울린다는, 삼양춘 약주로 한잔하려구요 💕제품 카드 설명과 술패키지가 와인같은 느낌이라 와인잔으로 🙈안주는 요새 많이 보이는 샤인머스캣 &amp; 치즈 조합에후추갈갈솔솔뿌리고, 프랑스에서 사온아티산 트러플오일 휘리릭 하면 그야말로 심쿵맛 😋〰️#찾아오는인생술 #담화박스 #전통주@sooldamhwa ➿자세한내용은요기로 🙃</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>좋아요 185개</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['#제품협찬〰️지난', '#술담화', '#찾아오는인생술', '#담화박스', '#전통주@sooldamhwa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>주말에 마셨던 술, 살로 가면 어떡하지?😫⠀⠀❝술을 마시면 살이 찐다❞ 라는 속설, 한 번쯤 들어보셨으리라 예상됩니다. 오늘은 술과 살의 관계를 알아보려 합니다.⠀도수를 기준으로 나눴을때, 도수가 높을수록 칼로리가 높은 반면, 도수가 낮으면 당질의 포함량이 높다는 것을 알 수 있는데요(대략적으로 본 데이터인 만큼 주종과 브랜드별로 차이가 존재한다는 점 양해 부탁드립니다)⠀술살을 걱정하는 입장에서는, 어떤 술을 마셔야 할까요?🧐⠀당질이 적은 술을 추천합니다. 술의 칼로리는 체내에 저장되지 않고 바로 소모되거나 소변으로 배출되기 때문입니다.⠀"술을 마시면 살이 찐다", '술살'은 술로 찌는 살이 아닌, 함께 먹은 안주로 인해 쪘을 살일 확률이 아주 높습니다.🍗🍔🍟🍕⠀치킨에 맥주, 삼겹살에 소주와 같은 궁합을 생각하면 안주의 열량이 정말 높다는 것을 알 수 있습니다. 체중조절을 하며 술 드시길 원하신다면 단백질 위주의 음식, 그리고 식이섬유가 풍부한 음식을 추천합니다😋⠀⠀맛있는 술, 건강하게 먹기도 술담화와 함께 해요💪⠀</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>외 292명</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>j.yong2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>.바야흐로전어 세꼬시의 계절이자오감을 아껴서 써야겠다고 절실히 느끼는요즘의 가을초입#전어세꼬시#술담화#고흥유자주#건강이최고다최고#오감보다생생한육감의세계로보내주는푸르고투명한파랑새#쉿몽환의숲</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>좋아요 71개</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['#전어세꼬시', '#술담화', '#고흥유자주', '#건강이최고다최고', '#오감보다생생한육감의세계로보내주는푸르고투명한파랑새', '#쉿몽환의숲']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>raidos84</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>#홈술술이 약간 모자란거같아 오픈한 #신례명주50도의 고도주이고 제주산감귤로 만든 혼디주의 증류주 버젼이다. 오크통 숙성이 있어서 바닐라와 오크향이 올라오고 목넘김은 부드러운편혼술하기 좋은 미니어처사이즈라 만족😄#술담화 에서구매 #혼디주 #증류주 #전통주</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>좋아요 27개</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['#홈술술이', '#신례명주50도의', '#술담화', '#혼디주', '#증류주', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ungki_kim</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>능이주제조 : 내국양조 alc vol.  13%7월 담화박스로 받은 능이주도 개봉~솔직히 송이를 제외하고는 버섯의 향이 어떤지 잘 모른다.다만 뭔가 담백하고 은은한 향과 맛이지 않을까 생각했다. 개봉하고 향을 맡을 때만 해도 그렇게 생각했는데...마시고 나서의 느낌은 완전히 다르다...강한 산미가 입 안에 가득하다.마시면서 드는 생각은 와인을 마시는 것 같은 기분이었고옆애 계시는 분은 매실주 같다고 했다.이름떼고 블라인드로 마시면 버섯은 생각도 못할 듯.캐릭터가 강한편이라 반주보다는 단독으로 한잔 씩 마시면 잘 어울릴 것 같다.#웅기Bar #술스타그램 #술쟁이 #초빼이 #술꾼 #애주가 #홈술 #홈술스타그램 #집술 #집술스타그램 #전통주 #전통주스타그램 #우리술 #우리술스타그램 #능이주 #내국양조 #알콜스타그램 #술담화 #담화박스 #찾아오는인생술</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>좋아요 45개</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['#웅기Bar', '#술스타그램', '#술쟁이', '#초빼이', '#술꾼', '#애주가', '#홈술', '#홈술스타그램', '#집술', '#집술스타그램', '#전통주', '#전통주스타그램', '#우리술', '#우리술스타그램', '#능이주', '#내국양조', '#알콜스타그램', '#술담화', '#담화박스', '#찾아오는인생술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ungki_kim</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>녹파주제조 : 솔송주 양조장 (구 명가원) alc vol.  15%며칠전 솔송주 마셔본 김에7월 담화박스로 받은 녹파주를 이어서 개봉.산가요록라는 고문헌에 나오는 고려시대 술을 현대식으로 복원, 재해석해서 빚었다고 한다.일단 병은 솔송주랑 똑같이 생기고 프린팅만 다르다.술 색도 비슷해서 라벨 지우고 둘이 두면 구별이 안되지 싶다.하지만 추구하는 맛은 다르다.드라이하고 솔향이 감도는 솔송주랑 비교하면 녹파주는딱 전통 청주의 느낌이다. 살짝의 누룩향과 과하지 않은 단 맛. 그리고 삼킨 후 입안에 남는 은은한 향까지.  강렬하지는 않지만 가볍고 은은하게 균형을 잡아주는 술이다.마음 맞는 사람과 두런두런 이야기하면서 함께 마신다면 취하는 줄도 모르고 있을 것 같다. 다른 의미에서의 앉은뱅이술이랄까.다만 솔송주에 비하면 구매 난이도가 조금 있는 편.솔송주가 메인이고 녹파주는 약간 사이드의 느낌이랄까.그러나 사이드로 취급 당할만한 술이 이니다.조금 더 물량이 풀리고 접근이 쉬워지기를.#웅기Bar #술스타그램 #술쟁이 #초빼이 #술꾼 #애주가 #홈술 #홈술스타그램 #집술 #집술스타그램 #전통주 #전통주스타그램 #우리술 #우리술스타그램 #솔송주 #녹파주 #명가원 #알콜스타그램 #술담화 #담화박스 #찾아오는인생술</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>좋아요 32개</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['#웅기Bar', '#술스타그램', '#술쟁이', '#초빼이', '#술꾼', '#애주가', '#홈술', '#홈술스타그램', '#집술', '#집술스타그램', '#전통주', '#전통주스타그램', '#우리술', '#우리술스타그램', '#솔송주', '#녹파주', '#명가원', '#알콜스타그램', '#술담화', '#담화박스', '#찾아오는인생술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>kkim_0224</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>#첫줄 정기 구독완료.. 😁아맞다.. 나 금주중인데.........#전통주 #정기구독 #일상스타그램 #daily #술담화 #술스타그램 #알콜스타그램 #빨리와라 #데일리 #좋아요 #일상 #dailygram #좋아요그램 #일상스타그램</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>좋아요 29개</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['#첫줄', '#전통주', '#정기구독', '#일상스타그램', '#daily', '#술담화', '#술스타그램', '#알콜스타그램', '#빨리와라', '#데일리', '#좋아요', '#일상', '#dailygram', '#좋아요그램', '#일상스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>wuddid.h</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>한달만에 주말출근의 끝 늘어지게 자다 저녁으로 남편이 한 파스타와 감바스에 와인한진#술스타그램 #주말저녁 #마셔블랑 #한라봉와인 #술담화 #감바스 #화이트와인요리 #갈릭파스타</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>좋아요 7개</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['#술스타그램', '#주말저녁', '#마셔블랑', '#한라봉와인', '#술담화', '#감바스', '#화이트와인요리', '#갈릭파스타']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kurakidlfwls</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>술담화8월자 후기홍삼명주는 적당한 탄산에 홍삼향과 맛이 나는 술이랄까...?고흥유자주는 새콤달콤하니 술술 들어감ㅋㅋ가장 기대했었던 꿀샘16!! 지난번 오미자주 기억이 넘나 좋아서 기대했는데 역시나 굿굿!! 토닉에 섞어 먹으니 더 맛남ㅋㅋ#술담화#고흥유자주#홍삼명주#꿀샘16</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>좋아요 12개</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['#술담화', '#고흥유자주', '#홍삼명주', '#꿀샘16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>y__ell__s</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>#술담화#8월</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>좋아요 2개</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['#술담화', '#8월']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>y__ell__s</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>#술담화#7월</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>좋아요 3개</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['#술담화', '#7월']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>y__ell__s</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>#술담화#6월</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>좋아요 2개</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['#술담화', '#6월']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>takdeker</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>불금!고3이는 우유! 어른은 우렁이쌀에 닭발과 닭불고기. 매콤하면서 담백하니 안주와 야식으로 Good!일주일 수고한 모든 식구들에게 합당한 불금의  즐거움.몇개월 지나면 이제 고3이도 우유를 버리고 같은 잔? ㅋㅋ#불금 #술담화 #배달치킨못지않은 #고3이 #달콤매콤담백 #식구들의수다 #부자의술자리</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>좋아요 10개</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['#불금', '#술담화', '#배달치킨못지않은', '#고3이', '#달콤매콤담백', '#식구들의수다', '#부자의술자리']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>술담화의 전통주점 PICK 10탄😋오픈한지 약 1달 정도된 신상맛집 𝕂𝕆𝕋𝔸 𝕓𝕪 𝔻𝕐𝕌ℕ으로 돌아왔습니다. 신사역에서 2년 동안 한식주점 '뎐'으로 운영한 전통주점이 압구정으로 확장 이전했답니다.멋진 분위기는 덤!✨ 셰프님의 상상력 가득한 멋진 요리에 눈과 입이 모두 호강했던 경험을 가져갈 수 있었답니다.코타바이뎐은 9월 30일까지 가오픈으로 운영되고 있습니다. 가오픈 기간동안 더욱 단단하게 다져나가는 기회를 마련하는 한편, 방문하는 손님들이 편하게 오실 수 있는 공간으로 만들어나갈 예정이라고 전했습니다💞방문 전 예약은 필수! 메뉴와 운영시간, 예약은 코타바이뎐 인스타그램(@kota_dyun)을 참고해주세요!</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>좋아요 351개</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>코타바이뎐</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tyeodya</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>#광고 안녕하세요 텨댜입니다! 오늘은 ‘술담화’의 서비스를 소개해드리려구요!! 술담화는 전통주 구독서비스를 제공합니다. 정기구독을 하시면 전통주 소믈리에가 매월 테마에 맞춘 술 2-4병과 큐레이션 카드를 받아보실 수 있답니다 ☺️9월엔 풍성한 추석을 테마로 담화박스를 구성했다고 합니다!이달의 정기구독 마감일은 21일 월요일이라는 점, 참고해주세요. 물론 1회성 구매도 가능하답니다❤️ 상세 정보는 술담화 인스타그램 계정에서 확인해주세요!두뚱과 저는 이번에 처음으로 담화박스를 경험해봤는데 너무너무 만족했어요!!! 9월의 술이었던 삼양춘 시리즈도 맛이 좋았고(두뚱이 너무 맛있다며 한번에 두병 클리어하더라고요^^..) 무엇보다도 패키지가 고급스러워서 선물하기도 딱 일 것 같습니다!! 술선물... 너무 좋잖아요?☺️저희는 매운 안주와 함께 먹었는데 이 조합도 참 좋았지만 담백한 안주와도 잘어울릴 것 같아요! 바깥 외출이 꺼려지는 요즘, 집에서 술담화와 함께 나만의 술상을 차려보는 것 어떨까요?한 달에 한 번, 나를 위한 선물로도 추천합니다!#술담화#담화박스#전통주구독#술추천#술스타그램#먹스타그램#맛있는술#원샷#드링킹#자취팁#술파티#알콜스타그램#광고</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>외 7,752명</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['#광고', '#술담화', '#담화박스', '#전통주구독', '#술추천', '#술스타그램', '#먹스타그램', '#맛있는술', '#원샷', '#드링킹', '#자취팁', '#술파티', '#알콜스타그램', '#광고']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>shiocong</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>#술담화 #담화박스 #찾아오는인생술 #전통주취향찾기 #전통주 #7월술 #왕주사진이없네ㅠ #다맛있어ㅜ #쿡솜씨순대볶음 #입짧은햇님추천 천천히 하나하나 맛 보는 중😍 8월 술 사진도 조만간 업로드 해야지ㅎㅎ9월도 기대중 💕</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>좋아요 17개</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스', '#찾아오는인생술', '#전통주취향찾기', '#전통주', '#7월술', '#왕주사진이없네ㅠ', '#다맛있어ㅜ', '#쿡솜씨순대볶음', '#입짧은햇님추천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>parksukkyo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>.저녁 반주.#대윤가야곡왕주 #육전 #전통주 #술담화 #술스타그램</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>좋아요 70개</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['#대윤가야곡왕주', '#육전', '#전통주', '#술담화', '#술스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>구수한 캐러맬향 듬뿍🍯 토박이 한산소곡주한산소곡주는 충청남도 서천 한산면에서 빚어지는 유서 깊은 약주입니다. 백제 때부터 이어져왔으니 그 역사가 1500년에 달할만큼 우리나라에서 제일 오래된 전통주이기도 한데요👍 '앉은뱅이 술'이라는 별명이 있는 한산소곡주. 달콤한 맛에 연거푸 술을 들이키다보면 취해서 제대로 몸을 일으킬 수 없을 것입니다😵서천 한산면은 마을 전체가 소곡주를 빚는 '술 익는 마을🏡' 입니다. 두 집 걸러 한 집은 한산소곡주를 빚는 양조장으로 봐도 과언이 아닐 정도로 이 작은 마을은 양조장으로 가득합니다. 양조장 수만 무려 70여개에 달한다고 합니다많고 많은 한산소곡주 중에서 오늘 소개할 소곡주는 토박이 한산소곡주입니다. 소곡주 품평회에서 2년 연속 금상을 수상할 만큼 맛이 뛰어난 소곡주입니다🎖누룩향이 강하지 않아 목넘김이 한층 부드러운 이 술은 향긋한 캐러멜 향이 큰 매력이랍니다. 천천히, 음미하며 드셔보세요.옛날에는 소곡주를 마실 때 미나리전, 모시전을 곁들였다고 합니다. 밀도 높은 단 맛을 자랑하는 소곡주가 슴슴한 음식들 가운데서 입맛을 돋우는 역할을 톡톡히 했으리라 추측할 수 있는데요😋간이 세지 않은 음식과 어울리는 소곡주는 매운 음식에도 결코 밀리지 않습니다. 달콤하게 농축된 맛이 매운 맛을 끌어 안아준답니다. 주꾸미볶음, 제육볶음을 특히 추천합니다🌶우희열 명인님의 한산소곡주부터 다양한 소규모 양조장까지. 우리나라에 있는 70여개 버전의 한산소곡주를 하나하나 맛보는 재미도 쏠쏠할 것이라 생각됩니다🙆‍♀️</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>외 536명</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>suldog_ac</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>#꿀샘16꿀맛이 사르르~적당히 달달한 꿀향이 좋다. 너무 달면 싫은듯. 꿀 특유의 상큼함?같은 맛이 난다. 약간 달지않은 젤리맛? 꿀물을 진하게 타서 술에 섞어먹는 느낌. 부드럽게 잘 넘어가 먹기좋다~</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>좋아요 38개</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['#꿀샘16꿀맛이']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>jinnering</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>은밀하게 가을 저녁 즐기기❤️ 안주는 넷플릭스 [고양이는 건들이지 마라] 랑 참치캔 #술스타그램 #술담화 #사회적거리지키면서 #술마시기</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>좋아요 6개</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['#술스타그램', '#술담화', '#사회적거리지키면서', '#술마시기']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mae_mang71</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>#칵테일 #학95bar #웨이브토닉 #술담화 #녹파주 #약주 겨우 한잔 남은걸로 만들었다! 지훈아!!</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>좋아요 16개</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['#칵테일', '#학95bar', '#웨이브토닉', '#술담화', '#녹파주', '#약주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>전통주와 아티스트의 만남🧑‍🎨💟🍶많은 사람들이 전통주를 '올드하다'라고 인식하는 이유 중 하나로 패키지 디자인을 빼놓을 수 없습니다. 이에 전통주 역시 더욱 감각적인 디자인으로 선보이고 있답니다. 오늘은 아티스트를 만난 2종의 전통주를 소개합니다.✔️ 문배술 X 장욱진 아트에디션문배술이 양주시립장욱진미술관과 아트콜라보레이션을 선보였습니다. 1만개 한정으로 만들어진 콜라보 패키지 내부에는 문배술 헤리티지 375ml 두 병과 샷잔, 그리고 나날이 좋은 날 삽화 엽서로 구성되어 있습니다. 나날이 즐거운 날이 되기를 기원한 장욱진 화백의 따뜻한 마음이 문배술에 담겼습니다. 한잔, 어떠세요?😉✔️ 추성주(추성주는 담양 지역의 전통주입니다. 6페이지의 오타 단양&gt;&gt;담양으로 수정합니다)외국인이 바라본 한국의 전통주는 어땠을까요? 북유럽 디자이너 밀라와 에를렌은 술 하나에 개성이 확실하고 스토리가 풍부해 디자이너의 상상력을 자극한다고 답했습니다. 추성주에 새로운 옷을 입히기 위해 이들은 다양한 종류의 전통주를 마시는 것은 물론, 선비들이 자연과 교감하며 마신 술의 느낌을 체감하고 수묵화를 새로이 접했다고 합니다. 한층 모던하게 바뀐 디자인, 어떠신가요?✨전통주 종류가 다양한만큼 디자인도 각양각색이죠! 여러분의 마음에 쏙 드는 디자인의 전통주는 무엇인가요? 술담화에게 알려주세요! 궁금합니다😋</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>외 399명</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>radkiya</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>#싸돌아다니기그램 #낮술이쵝오 #횡성한우 #진판델와인 #소고기엔와인 #술담화 #안동진맥소주22 #담솔40 #부자진서울 #소믈리에와함께아무생각없이 각자 챙겨온 술들을 맛보며...쫌 쉬었다가 마셔야겠다...</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>좋아요 44개</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>횡성 벳소캠프</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['#싸돌아다니기그램', '#낮술이쵝오', '#횡성한우', '#진판델와인', '#소고기엔와인', '#술담화', '#안동진맥소주22', '#담솔40', '#부자진서울', '#소믈리에와함께아무생각없이']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>zin_jojo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>_#술담화 #8월 #한식정찬 #왕 #크로플#염따빠끄 #불고기정식#curvedcoffee #맛집 이네 #❤️</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>좋아요 28개</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>잘먹어서 좋다더니 마른애랑 사귀더라?</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['#술담화', '#8월', '#한식정찬', '#왕', '#크로플', '#염따빠끄', '#불고기정식', '#curvedcoffee', '#맛집', '#❤️']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bethe1moon</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>🐻Good-bye Terry🐻술담화에서 늘 든든했던 존재 태리태리.하나하나 신경쓴 개인 맞춤형(!) 선물과 편지 고마워☆오늘 약속이랑 제주도도 잘 다녀왕~!!⛰요즘은 샴페인 잔에 막걸리 받으면 설거지 하기 힘들겠다는 생각이 먼저 든다 ㅋㅋ 폼이 좀 더 보들보들하면 좋을 것 같은 이화백주, 복순도가 못지 않게 천천히 뚜껑을 열어야 한다!#사연이있는이화백주 #술예쁘다 #하타 #술담화 #전통주점 #담화박스 #전통주그램 #신탄진주조 #짐로저스 #프리츠한센</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>좋아요 195개</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>KOTA 코타by뎐</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['#사연이있는이화백주', '#술예쁘다', '#하타', '#술담화', '#전통주점', '#담화박스', '#전통주그램', '#신탄진주조', '#짐로저스', '#프리츠한센']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>술을 얼려 먹으면 무슨 맛이 날까?🤔무더운 날 차갑게 마시는 맥주, 온더락으로 마시는 각종 위스키 등 시원하게 마셨을 때 매력이 더욱 증가하는 술들이 많습니다. 그렇다면 술을 얼려 먹으면 무슨 맛이 날까요?🧊도수가 낮은 술과 높은 술로 나눠 간략히 설명드리고자 합니다🧑‍🏫⬆️ 에탄올의 어는 점은 영하 114도! 도수가 높은 술은 가정용 냉장고로 얼렸을 때 고체로 얼지 않고 점성이 큰 액체 상태로 머물게 됩니다. 얼린 술은 알코올의 향이 약해져 목넘김이 한층 부드러워집니다. 알코올의 향이 약해진만큼 상대적으로 술 본연의 풍미를 더욱 잘 느낄 수 있다는 장점도 있습니다.⬇️ 하지만 도수가 낮은 술은 냉동실에 얼렸을 때 고체로 얼게 됩니다. 당분이 얼음에 갇힌 나머지 맛과 향이 약해진다는 단점이 있습니다.도수와 향이 센 전통주, 단독으로 마시기 부담스럽다면 냉동실에 6시간 정도 두고 즐겨보시는 것은 어떨까요?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>외 386명</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>jei_zin</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>내가 먹어본 사탕 중에 젤 맛없는게 홍삼캔디였다. 다 녹여먹고나면 웬지 할아버지가 된듯한 느낌까지.근데 담금주가 아니라 홍삼 추출액으로 이런 맛과 향을 내기란 그 비율 맞추기가 쉽지는 않았을듯.살짝 혀끝이 쎄한것이 의외의 맛이다.바로 얼음 한움큼해서 콸콸꽐. 맛나다.건강해진다. ㅎㅎㅎ#괴산에 이런 술이 있었다니. 지역 특산주란다. #홍삼명주 #자연과인삼 #술담화 #담화박스</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>좋아요 30개</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['#괴산에', '#홍삼명주', '#자연과인삼', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>snaptimenews</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>📝‘매달 술·과자·반찬이 집으로’… 구독경제 확대신종 코로나바이러스 감염증(코로나19)의 여파로 온라인 쇼핑규모가 크게 증가했다.하나금융경영연구소가 올해 1분기 전체 카드 매출액과 매출 건수를 분석한 ‘코로나19가 가져온 소비형태의 변화’ 보고서에 따르면 인터넷쇼핑 이용액은 지난해보다 41% 증가했으며 홈쇼핑 매출도 19% 늘어났다.G마켓·옥션을 운영하는 이베이코리아에 따르면 지난달 1일에서 지난 6일까지 당일배송 거래액도 전년 동기 대비 120% 늘어났다.온라인쇼핑시장의 성장과 함께 특정 상품을 정기적으로 받아보는 구독경제시장도 커지고 있다. 구독경제를 하는 상품도 속옷, 전통주, 생리대, 꽃, 수입 과자, 양말 등 점차 다양해지고 있다.데친 나물을 정기 배송해주는 서비스를 제공하는 ‘나물투데이’에 따르면 코로나19 사태로 사이트 온라인 접속량이 늘어 구독 서비스를 찾는 사람들이 코로나19 발생 이전보다 2배 가량 늘었다..[후략].#정기구독서비스 #구독서비스 #구독경제 #술담화 #나물투데이 #스낵트립 #코로나 #온라인쇼핑 #인터넷쇼핑 #정기구독 #구독 #술 #과자 #반찬 #배송 #나물 #소통 #선팔하면맞팔 #이데일리 #스냅타임 #빡침해소_청춘뉘우스</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>좋아요 13개</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['#정기구독서비스', '#구독서비스', '#구독경제', '#술담화', '#나물투데이', '#스낵트립', '#코로나', '#온라인쇼핑', '#인터넷쇼핑', '#정기구독', '#구독', '#술', '#과자', '#반찬', '#배송', '#나물', '#소통', '#선팔하면맞팔', '#이데일리', '#스냅타임', '#빡침해소_청춘뉘우스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dinoland20020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>#술담화 #술담화8월 #전통주 #전통주구독 #홍삼명주 #고흥유자주 #꿀샘16 #술스타그램 #korealiquor</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>좋아요 8개</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화8월', '#전통주', '#전통주구독', '#홍삼명주', '#고흥유자주', '#꿀샘16', '#술스타그램', '#korealiquor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>woohyun.s</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>#술담화 #술담화8월 #전통주 #전통주구독 #홍삼명주 #고흥유자주 #꿀샘16 #지인들과함께 #술스타그램 #koreanliquor</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>좋아요 30개</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화8월', '#전통주', '#전통주구독', '#홍삼명주', '#고흥유자주', '#꿀샘16', '#지인들과함께', '#술스타그램', '#koreanliquor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>boozyisol</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>❤︎ 𝟸𝟶𝟸𝟶𝟶𝟾𝟸𝟿𝗦𝘄𝗲𝗲𝘁 𝗰𝗶𝘁𝗿𝗼𝗻 🍋 #고흥유자주08 @eotteonharu_official 유자가 유명한 고흥에서 생산되는 유자주30년 이상 된 고목의 유자로 만들어지는 프리미엄약주이지만내 입맛이 너무 저렴한 탓일까몇 년 전 유행하던 과일소주가 생각난다그중에도 즐겨마시던 시원자몽이 생각나는 맛이랄까도수는 8도로 낮은 편이고얼음을 띄워서 마시니 술술 잘 들어갔다유자향이 참 좋았다</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>좋아요 30개</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['#고흥유자주08']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>raidos84</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>#쇼핑#술담화 에서 추석맞이 할인하여 급 쇼핑겨울소주를 빼고 나머지는 맛을 아는 아이들#와이프최애 #토박이한산소곡주 #술공방 #겨울소주 #신례명주 #전통주 #더사고싶었지만자제했음✌️</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>좋아요 29개</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['#쇼핑', '#술담화', '#와이프최애', '#토박이한산소곡주', '#술공방', '#겨울소주', '#신례명주', '#전통주', '#더사고싶었지만자제했음✌️']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lucky_9122</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>한동안 집에서 술마실 일이 없어 잊고있었지 모야 간만에 집콕예정이라 생각난김에 미리 주문해놓구 토욜 낮부터 달려버리기😆😆.역시 이 대창에서 나오는 눅진하고 찐한국물은 넘나 술을 부르는 맛이죠👏👏분모자 납작당면은 첨먹어보는데 완전 떡같은 느낌이랄까 쫄깃쫄깃하니 그냥 분모자보다 이게 더 내스탈👍.유튭에서 핫했던 실비김치도 시켜봤는데, 오?? 생각보다 더 맛있쟈나 진짜 맛있는 김장김치가 되게 매운느낌이랄까양념 좀 걷어내고 먹으니 엄청 막 맵지도 않아서 밥  한술위에 얹어먹으니 진짜 대존맛이여요건 다먹으면 또 시켜먹어야쥐😋😋.....#문현전통한우곱창#곱창전골#곱도리탕#대창#곱창#분모자당면#실비김치#술담화#홍삼명주#불금#주말#집콕#먹스타그램#맛스타그램#술스타그램#집스타그램#먹방#일상#데일리</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>좋아요 97개</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['#문현전통한우곱창', '#곱창전골', '#곱도리탕', '#대창', '#곱창', '#분모자당면', '#실비김치', '#술담화', '#홍삼명주', '#불금', '#주말', '#집콕', '#먹스타그램', '#맛스타그램', '#술스타그램', '#집스타그램', '#먹방', '#일상', '#데일리']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lkj420</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>#혼술 #고흥유자주 #술담화 남은 마지막 8월 술담화 술. 여유가 나서 마셔봄. 기대했던 벌꿀주나 별로 기대안한 홍삼발효주보다 더 나은듯.유자의 새콤달콤한 맛과 부담없이 마시기좋은 낮은 도수(8도) 이런게 여유아닐까.같이 마실 사람이 없는게 아쉽구만.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>좋아요 14개</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['#혼술', '#고흥유자주', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>drunken_engr_bob</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>.[전통주]🍶서울의 밤🍶도수: 25%🍶양조장: 더한주류.향 : 매실향과 알콜향 적은 증류주향.황매실을 통한 1차 증류 그리고 노간주열매 벌꿀로 2차 증류한 술이라고 적혀있는데진의 풍미는 마셔야 약간 느껴질뿐이고, 사실 프로모션할 때 진이라고 소개를 잘 하지 않는걸로 봐서는"진"보다는 그냥 전통주에 초점을 맞추고 술을 빚은게 아닐까 싶다..이 술은 매실향이 깔끔하고, 목넘김 좋고, 알콜향이 튀지 않아 좋다.그리고 일단 가격이 25%짜리 인데 5000원대 나름 나쁘지 않다..뭔가 명확한 특징이 애매해서 나쁘지 않은데 뭐라 적기가 좀 어렵다..#한국진 #서울의밤 #전통주 #DOUBLEDISTILLEDPLUMSPIRITS #술담화 #담화박스 #약주 #청주 #술리뷰 #마쉿어 #술스타그램 #남자의취미 #남취 #킹갓술담화</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>좋아요 84개</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['#한국진', '#서울의밤', '#전통주', '#DOUBLEDISTILLEDPLUMSPIRITS', '#술담화', '#담화박스', '#약주', '#청주', '#술리뷰', '#마쉿어', '#술스타그램', '#남자의취미', '#남취', '#킹갓술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>drunken_engr_bob</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>.[전통주]🍶고유 (고흥 유자주)🍶도수 : 8%🍶양조장 : 녹동양조장.향 : 당연하겠지만 누룩향, 유자향이 전반적으로 지배한다.색 : 약간 탁한, 불투명한 유자의 노란색이 이쁘다..당연하게 누룩향, 유자향이 전반적으로 지배한다.적당한 감미 그리고 유자에서 기대할 수 있는 산미가 명확하다.맛 자체도 깔끔하게 떨어지지만, 그 혀의 백태가 끼는 느낌(?)은 남아있다.(사실 나는 그 끼는 맛 좋아한다.).가끔 한국 과일 전통주 중에는 소주에다가 과일청을 넣은 듯해서 일체감이 부족한 술들이 있는데내가 느끼기엔 술과 과실의 맛이 분리된, 즉 술에다가 유자청을 넣은 듯한 맛이 아니다.나름 일체감이 꽤나 느껴진다..물론 내 입맛은 항상 쌉쌀한 맛과 시트러스 향에 좋은 평을 주기 때문에 이런 시음 결과가 나온 것일 수도 있다..라벨과 병의 색감 조화가 내 눈에는 정말 세련되보인다..크림 새우, 탕수육에 먹으라는데 자몽 소스를 곁을인 오리스테이크에도 잘 어울릴 것 같고, 레몬크림새우에도 괜찮을 듯여기에 약간 탄산감이 있는 스파클링 고흥유자주도 좋을 것 같다..요 녀석은 나름 재구매 의향이 있다.나는 괜찮다..#고유 #전통주 #고흥유자주 #술담화 #담화박스 #약주 #청주 #술리뷰 #마쉿어 #술스타그램 #남자의취미 #남취 #킹갓술담화</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>좋아요 81개</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['#고유', '#전통주', '#고흥유자주', '#술담화', '#담화박스', '#약주', '#청주', '#술리뷰', '#마쉿어', '#술스타그램', '#남자의취미', '#남취', '#킹갓술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>saebom_story</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ㆍ세계최초로 홍삼을 발효시켜 만든 술14도, 술 약한 나에게 딱이다#홍삼명주#충북괴산#전통주#전통주구독#구독#술담화</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>좋아요 6개</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['#홍삼명주', '#충북괴산', '#전통주', '#전통주구독', '#구독', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>zayayume</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>좋은 책과 노트 선물 감사드립니다.#책 #일도사랑도일단한잔마시고 #드렁큰에디터 #술담화</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>좋아요 7개</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['#책', '#일도사랑도일단한잔마시고', '#드렁큰에디터', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>funnyboy0618</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>#등심득템#마블링#고흥유자주#술담화#콩불#백종원레시피#냉면</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>좋아요 28개</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['#등심득템', '#마블링', '#고흥유자주', '#술담화', '#콩불', '#백종원레시피', '#냉면']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>intomyheaven</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>드디어 맛보는 8월의 #술담화 더울 때 먹었으면 더 좋았을 맛이긴하네 😋</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>좋아요 75개</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>walkdontrun.j</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>.처음 보자마자 너무나 맘에 들었던 #bottle 당장 사고 싶었지만.. 당분간 특별한 일 따위 없을 것 같아 일단 보류 했었지.. .허나, #술담화 세일 품목에 올라있는 걸 보고 바로 결제완료, 너무 늦지 않은 시점에 이 술을 나눌 수 있기를.. 😭.가장 좋아하는 도자기인 #백자철화끈무늬병 을 모티브로 한, #오미로제 #스파클링와인 #결 🍷🍾 #술스타그램 #와인스타그램</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>좋아요 22개</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['#bottle', '#술담화', '#백자철화끈무늬병', '#오미로제', '#스파클링와인', '#결', '#술스타그램', '#와인스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>양조장 방문은 언제나 즐거워💃Feat. #맹개술도가 #안동진맥소주지난 5월에 다녀온 맹개술도가 방문기입니다! 초여름, 수확을 앞두고 있는 밀밭은 그야말로 황금물결의 장관을 이루고 있었습니다✨✨맹개술도가의 박성호 대표님은 맹개마을을 처음 방문했을 때 맞닥뜨린 멋진 절경에 '무릎을 꿇었다'라고 말씀하셨는데요🧎맹개마을은 대부분이 밀밭으로 구성되어 있는 곳입니다. 수입산 밀에 밀려 찾아보기 힘든 우리밀이 이곳에는 지천으로 깔려 있습니다🤩그리고 3만평의 우리밀을 고스란히 담아낸 것이 안동 진맥소주입니다. 술 한 모금에 풍부한 통밀빵의 향기를 느끼고 두 모금에 타오르는 작열감을 느꼈습니다🔥 곡물의 구수하고 담백한 여운이 길게 이어져서 '마시는 빵🥐' 과 같다고 표현을 한 기억이 납니다.농부이자 양조인의 오랜 기다림, 노력, 땀방울이 모두 서린 진맥소주였습니다. 500여년 전부터 존재해온 이 술은 대표님의 인생에 큰 전환기를 맞이하게 해줬습니다. 이 술을 마실 우리에게는 어떤 선물을 선사해줄까요?🎁맹개술도가 방문기는 술담화 유튜브에서 시청해주세요! 인스타그램에서는 미처 다루지 못한 재미있는 내용이 너무나도 많답니다😊</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>외 441명</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['#맹개술도가', '#안동진맥소주지난']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>daily._.bean</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>#20200910 목요일 저녁밥상🍽닭가슴살볶음인데 아구찜 맛인데 맛있는 남편요리👏🏻</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>좋아요 22개</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['#20200910']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>soolrame</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>#고흥유자주 #고유 #칵테일 #술 #술담화 #술레임 #전통주 #술레이는_전통주 #술스타그램 #인술타그램술담화 구독으로 받아본 전통주 고흥유자주얼음을 넣은 잔에 토닉워터 1: 고흥유자주 2 비율로 먹었다.유자향이 강하고 발효된 맛도 느껴졌다. 적당히 달아서 먹기는 좋았다. 과일주와 막걸리를 좋아한다면 괜찮을듯!내점수ㅡ맛ㅡ ●●●●●●●○○○가성비 ●●●●●●○○○○</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>좋아요 43개</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['#고흥유자주', '#고유', '#칵테일', '#술', '#술담화', '#술레임', '#전통주', '#술레이는_전통주', '#술스타그램', '#인술타그램술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>parksukkyo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>.계획대로 2차ㅋ안주는 #순대곱창볶음 술은 #꿀샘16 #고흥유자주 .#술담화 #베란다주점 #광제보고싶네ㅋ #술스타그램 #부부술상</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>좋아요 50개</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['#순대곱창볶음', '#꿀샘16', '#고흥유자주', '#술담화', '#베란다주점', '#광제보고싶네ㅋ', '#술스타그램', '#부부술상']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>parksukkyo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>.오늘은 미리 2차 예정이니까일단 1차로 육전, 갈비탕에 홍삼명주ㅋㅋㅋ.#홍삼명주 #육전 #갈비탕 #저녁메뉴 #술스타그램 #술안주 #술담화</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>좋아요 57개</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['#홍삼명주', '#육전', '#갈비탕', '#저녁메뉴', '#술스타그램', '#술안주', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>jang_sung_yong</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>.#대윤가야곡주조 의 #대윤가야곡주.어마어마하다음식과의 찰떡궁합의 상황을 격다.담백한 소고기 수육을 먹고먹다 조금씩 온몸이 느끼느끼해질 때쯤의 한모금의 대유가야곡주가 입안을 후레쉬 하게 해주는  놀라운경험~~느끼한 음식엔 최고의 조합일듯 #술담화 8월술도 칭찬해~</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>좋아요 36개</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['#대윤가야곡주조', '#대윤가야곡주.어마어마하다음식과의', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>jang_sung_yong</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>.#고흥유자주.기분좋은 유자의 향과 맛알콜도수8도에 적당한 새콤함..맛좋다#술담화 8월술</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>좋아요 37개</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['#고흥유자주.기분좋은', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ryosu.eum</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>오늘도 육퇴! 수고들하셨습니다.#술담화 #고흥유자주 #대구뭉티기 #유자향너무좋음 #식감최고</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>좋아요 51개</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>목포 우리집♡</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['#술담화', '#고흥유자주', '#대구뭉티기', '#유자향너무좋음', '#식감최고']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>loksejay</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>갑자기 집 앞에까지 오셔서 서프라이즈하는 쑤진턴배님은 천사입니까?🧝🏻‍♀️🧚🏻‍♀️ #술담화 #오산막걸리 후배사랑🥴 답례로 이것은 운명? 오늘 우연히 산 비건빵🥖🥨 주말에 어쩔 수 없이 한 잔 해야겠군🍶</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>좋아요 31개</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['#술담화', '#오산막걸리']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>skybohemian</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>오예🥳드디어 도착한 책그리고 수첩이라는 선물😘여행 갈 때 쓰고픈데... 언제 갈 수 있나😂...-20.09.10#술담화 #드렁큰에디터 #책증정이벤트 #당첨</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>좋아요 20개</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['#술담화', '#드렁큰에디터', '#책증정이벤트', '#당첨']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>drinker100</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>★☆★커피냑이 독해서 사이다로 희석...😃술에 무엇을 섞어 마사는건 사파인데 ㅋㅋ 술 자체로 마셔야 하는데 늙은듯...😭#집에서#소소한#술상#돼지곱창#동그랑땡#동태전#커피냑#술스타그램#안주#안주스타그램#커피냑#술담화#담화박스</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>좋아요 198개</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['#집에서', '#소소한', '#술상', '#돼지곱창', '#동그랑땡', '#동태전', '#커피냑', '#술스타그램', '#안주', '#안주스타그램', '#커피냑', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>jokyabhein</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>#술담화 #고흥유자주 누가 맛있다길래 얼른 마셔보니 진짜 맛있네 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>좋아요 16개</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['#술담화', '#고흥유자주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>joon_94fh</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>YouTube 산적 TV밥굽남[애주가들에게 바치는 영상] 🥳앞광고 쎄게 때렸습니다.많이 봐주세요:)#술담화 #추석선물 #추석 #술스타그램 #전통주 #선물 #앞광고 #술 #안주 #선물세트</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>좋아요 108개</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['#술담화', '#추석선물', '#추석', '#술스타그램', '#전통주', '#선물', '#앞광고', '#술', '#안주', '#선물세트']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>pbd_beerexploration</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>저도 술담화를 구독해보았습니다!큐레이션한 전통주를 한달에 한번 배송해주는 서비스에요.예전에 맥주 배송해주던 벨루가가 그립네요. 맥주도 규제가 풀려서 배송이 가능해지면 좋겠습니다.술담화로 전통주 받게되면 전통주도 리뷰해볼게요!🥳#술담화 #전통주</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>좋아요 46개</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['#술담화', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>jei_zin</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>유자술. 맛도 향도 틀림없는 유자차라해도 가히 틀린말이 아닐듯하다. 하이볼로해서 큰 머그잔에 마시니 전혀 안주가 필요없다. 취기가 은은하게 올라온다. 캬~ 어떻게 이렇게 유자를 담아냈을까? 틈틈히 구매해서 쟁여놔야겠다.#담화박스 카드에 따르면전국 유자 생산량의 43%를 ZF지한다는, #유자로 유명한 전남고흥에서 만들어지는 #유자주입니다. 따뜻한겨울로유명한고흥은겨울이저1철인유차갸 특히 맛있기로유명한데요. 심지어 고흥유자주에 쓰이는유자는30년 이상된 고목에서 자란유자를 쓰는데, 수령이 많은 나무는생산량이 떨어지지만 더 농축된 당도와 풍미를지닌과실을 맺기때문에 더 프리미엄으로 인정받는다고합니다! *따뜻한 햇살과 남해의 해풍을 맞고 자란고흥쌀과 고흥유자로 곱게 자란 유자의 풍미를 느껴보세요! *프랑스메서는 오래된 포도나무에서 자란 포도로 만든 와인을 표시하기 위해 ‘VieillesVignes'라고 라벨에 표기한다고 합니다. #우리술 #전통주 #약주 #고흥유자주08 #녹동양조장 #술담화</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>좋아요 31개</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['#담화박스', '#유자로', '#유자주입니다.', '#우리술', '#전통주', '#약주', '#고흥유자주08', '#녹동양조장', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>9월 담화박스 미리보기👀파!격! 추석이 3주도 채 남지 않은 이 시점, 담화박스 구성을 선공개하는 시간을 마련했습니다.힌트 공개 후 많은 분들이 기대와 예측을 남겨주셨어요. 네! 9월 담화박스는 삼양춘 탁주 약주 청주 시리즈입니다✨1️⃣ 삼양춘 탁주담백한 쌀향과 밸런스가 훌륭하게 잡힌 탁주입니다. 2018 대한민국 주류대상에서 영광의 '대상'을 차지한 술이랍니다.2️⃣ 삼양춘 약주2018 대한민국 주류대상 'Best of Best'를 수상한 술입니다. 고소하고 은은한 곡물향에 '쌀로 만든 화이트와인'이라는 찬사를 받은 술입니다.3️⃣ 삼양춘 청주올해 3월, 삼양춘에서 새롭게 출시한 청주입니다. 살구의 산뜻함과 드라이한 바디감을 가진 이 술은 음식과 함께 마셨을 때 더욱 빛을 발한다고 합니다.풍성한 추석을 담화박스에 다 담아보았습니다. 구성, 어떠셨나요🌝?💡 3종의 술은 모두 냉장보관이 필요한 상품입니다. 이에 9월 담화박스는 스티로폼 박스로 배송될 예정입니다.✔️ 담화박스가 배송되기까지 딱 2주가 남았습니다. 5박스 이상 구매를 원하시는 분들은 카카오톡 플러스친구 [@술담화]로 문의주세요!</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>외 499명</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>kimhaengwun</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>#술담화#담화박스홍삼명주 홍삼맛캔디가 생각난다는.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>좋아요 7개</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스홍삼명주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>dongjin3543</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>퇴근 후 집에서 청귤청 담근 후 모듬회에 홍삼명주 한잔 #탄현동이자키야#마츠노키#맛집#포장#모듬회#술담화#홍삼명주#전통주 체험</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>좋아요 20개</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['#탄현동이자키야', '#마츠노키', '#맛집', '#포장', '#모듬회', '#술담화', '#홍삼명주', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rosa__chung23</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>오징어 볶음과 꿀샘16🐝 ᆢ 꿀맛 조합 🥂ㆍㆍ#냉파주간 #자투리채소와 은미샘 #특제양념#버섯누룩 #고추누룩 #오징어볶음 #맛보장👍 #식재료 #제로웨이스트 #노력중#술담화 #꿀샘16 #리큐르 #후다닥한상#저녁 #일상</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>좋아요 36개</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['#냉파주간', '#자투리채소와', '#특제양념', '#버섯누룩', '#고추누룩', '#오징어볶음', '#맛보장👍', '#식재료', '#제로웨이스트', '#노력중', '#술담화', '#꿀샘16', '#리큐르', '#후다닥한상', '#저녁', '#일상']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>lovesol2020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>솔이의 보물상자. 장난감 박스 리폼 해줬다🎁 #장난감부자 #갖고놀면치울줄도알아야지#술담화 #고양이그램 #냥스타그램 #캣스타그램 #catstagram</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>좋아요 10개</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['#장난감부자', '#갖고놀면치울줄도알아야지', '#술담화', '#고양이그램', '#냥스타그램', '#캣스타그램', '#catstagram']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>elin_arl</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>😋지난 3개월ㅋㅋ#전통주갤러리 #전통주구독 #술담화 #술담화6월 #술담화7월 #술담화8월 #담화박스 #맛있었다 #술탐구생활 #놀궁리연구생활😝 #amusement_research_life😝</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>좋아요 18개</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['#전통주갤러리', '#전통주구독', '#술담화', '#술담화6월', '#술담화7월', '#술담화8월', '#담화박스', '#맛있었다', '#술탐구생활', '#놀궁리연구생활😝', '#amusement_research_life😝']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>drinker100</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>★☆★시작은 #감자채전 이었으나 채써는데 실패하여 감자튀김과 감자부침 사이 어디 저멀리로 떠나버린 요리...맛은 좋음 ㅎㅎ😂 #집에서#소소한#술상#감자#얼갈이김치#깻잎짱아찌#술스타그램#안주#안주스타그램#고흥유자주#술담화#담화박스</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>좋아요 208개</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['#감자채전', '#집에서', '#소소한', '#술상', '#감자', '#얼갈이김치', '#깻잎짱아찌', '#술스타그램', '#안주', '#안주스타그램', '#고흥유자주', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>가을이 오면🎶🍂🍁안녕하세요, 술담화입니다. 오늘은 가을을 한 병에 가득 담은 전통주 5병을 소개드립니다😋🌰 풍부한 알밤향으로 가득한 막걸리 : #세종알밤주🌼 가을 국화로 빚은 긴 여운의 과하주 : #술아국화주🍇 유기농 산머루로 만든 레드와인 : #크라테산머루레드와인스위트🌾 다섯 번 빚어 만든 프리미엄 탁주 : #천비향탁주🍎 사과 와인을 증류시켜 만든 한국의 칼바도스 : #추사40아침 저녁으로 서늘한 공기가 느껴집니다. 이른 가을을 맞이하며 술담화와 함께 가을 한 모금 어떠세요?🐿</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>외 356명</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['#세종알밤주🌼', '#술아국화주🍇', '#크라테산머루레드와인스위트🌾', '#천비향탁주🍎', '#추사40아침']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>jeon_tongju</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>.꿀샘16(16%)이름부터 꼭 마셔보고 싶게 만드는 술, 꿀샘16!향부터 맛까지 꿀 특유의 특징을 잘 살린 술알콜향에 거부감이 있거나 씁쓸한 술을 잘 즐기지 못하는 분들께 꼭 선물해 보고싶은 술!🍶🍶🍶🍶#꿀샘16 #술리뷰 #술담화 #술담화8월 #꿀주</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>좋아요 19개</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['#꿀샘16', '#술리뷰', '#술담화', '#술담화8월', '#꿀주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>zayayume</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>주말의 즐거움. #술샘16 #콘치즈 #술담화</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>좋아요 7개</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['#술샘16', '#콘치즈', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rosebabyin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>백순대볶음+오이미역냉국🥒+능이주🍄.능이주 향이 참좋구나~😊.*능이버섯은 깊은 산중 공기가 좋은 곳에서3년에 한번 정도만 채취가 가능한 귀한 버섯으로버섯 중에 으뜸으로 꼽는다.*조선시대 궁중의 의약을 담당하는 관청을 내의원,또는 내국이라 불렀다.그 당시 술은 약용으로 처방되기도 하여내국에서 관리하였는데몸에 좋은 약재와 과실로 술을 빚어왕실의 건강관리에 사용하였다.*능이주는 풀, 꽃, 독특한 향을 품은 능이버섯과쌀로 빚은 술로 은은한 버섯향이평창동계올림픽 개막식 VIP 리셉션 만찬에서한우 스테이크와 곤드레밥과 마리아주로서의조화가 매우 좋았다는 평가를 받았다..#백순대볶음#오이미역냉국#능이주#술담화#하루한끼#집밥</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>좋아요 5개</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['#백순대볶음', '#오이미역냉국', '#능이주', '#술담화', '#하루한끼', '#집밥']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>drunken_ungs_</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>_🍺#고흥유자주🍺⠀•원산지 : #한국•종류 : #살균약주•알코올(ABV) : 8%•감상평 : #유자칵테일같은 #약주지만_청주같은_깔끔함 #8월의_추천술⠀《술담화》 8월의 술 마지막, 고흥유자주 입니다⠀유자보다는 유자차에 가까운 듯한 상큼한 맛⠀고흥유자주는 유자의 맛이 강하지 않다적당히 느껴지긴 하는데 설명보다는 약한 느낌이다내 기억속 과일로 먹는 유자는 정말정말 쓴 맛이 강했는데고흥유자주는 유자의 달달함과 상큼함만 남기고쓴맛은 다 날렸다고 생각될 정도다⠀유자 술은 순하리 소주나 유자사케 정도 마셔봤는데순하리는 소주라서 유자맛에 가장 가까웠던 것 같고유자사케는 유자청을 먹는 듯 단맛이 되게 강했던걸로 기억한다이 고흥유자주는 유자의 단맛과 상큼함만 남아서개인적으로는 고흥유자주가 제일 좋은 것 같다⠀그리고 이번 고흥유자주도 칵테일보다 그냥 마시는게 좋았다고흥유자주는 그냥 마셔도 이미 칵테일 같은 맛이기도 하고무언가랑 섞으면 유자향이 많이 약해져서 아쉬웠다⠀이번 술담화에서 술을 하나 추천하자면 단연 고흥유자주다인위적인 단맛이나 상큼함도 아니었고누룩이 1프로 이상 들어가는 약주라고 했지만거의 청주라고 느껴질만큼 산뜻하고 깔끔했다특히나 유자 사케의 향을 좋아했던 사람들에게는국내에서 쉽게 구할 수 있는 유자 술이라는게가장 큰 장점이 될 듯 싶다_</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>좋아요 21개</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>['#고흥유자주🍺⠀•원산지', '#한국•종류', '#살균약주•알코올(ABV)', '#유자칵테일같은', '#약주지만_청주같은_깔끔함', '#8월의_추천술⠀《술담화》']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>drunken_ungs_</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>_🍺#꿀샘16🍺⠀•원산지 : #한국•종류 : #리큐르•알코올(ABV) : 16%•감상평 : #꿀물 #숙취해소 #달달한_술 #목넘김이_좋은_술⠀《술담화》 8월의 술 두번째, 꿀샘16 입니다⠀술을 마시고 있지만 왠지 숙취가 해소될 것 같은 꿀물 맛 리큐르⠀같이 온 설명지에 적혀있던 것 처럼모르고 마시면 술인지 모를 정도로 알콜향은 거의 없고맛과 향에서 달달한 꿀이 느껴지는 것 말고는크게 특징적인 부분이 거의 없다⠀진짜 꿀물같다고 느낀 부분은 의외로 목넘김이었다꿀물을 마실 때 느껴질법한 몰캉한 느낌 때문인지오히려 칵테일로 마실 때가 더 술같은 느낌이 들었다⠀칵테일 제조법을 따라하면꿀맛도 많이 줄어들고, 그나마 특이한 점인 목넘김도 사라진다좀 더 술을 마신다는 기분이 들긴하지만그냥 흔한 토닉워터맛 칵테일이 되는 느낌이라이번 꿀샘16도 있는 그대로 마시는 편이 더 좋았다⠀술 자체가 되게 약하다는 느낌을 받았다도수가 약하다는게 아니라, 술에서 느껴지는 부분들이전반적으로 좀 약하다는 기분이 든다그래서 간이 센 안주와는 안어울린다고 생각했다특히 달달한 안주를 먹고나면 꿀샘16은 맛이 거의 안느껴지니혹시 먹게된다면 밋밋한 안주들과 먹는편이 좋을 듯 싶다_</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>좋아요 25개</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['#꿀샘16🍺⠀•원산지', '#한국•종류', '#리큐르•알코올(ABV)', '#꿀물', '#숙취해소', '#달달한_술', '#목넘김이_좋은_술⠀《술담화》']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>sooldamhwa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>📍추석 연휴 택배사 기간 마감으로 프로모션 기간이 24일(목)에서 23일(수)로 변경되었습니다. 이용에 참고하시길 바랍니다.🎊2020년 술담화 추석 프로모션 안내🎊벌써 추석이 약 3주 앞으로 다가왔습니다. 이제 슬슬 연휴 계획을 세워야 할 시기가 오고 있네요☺️뒤숭숭한 상황에 걱정이 앞서지만, 술 걱정만큼은 잠시 덜어 놓으시길 바랍니다! 추석을 맞이하여 술담화가 힘차게 준비한 프로모션 꼭 확인해주세요🙌✔️ 기간 : 2020.09.07(월) - 09.23(수)✔️ 할인율 : 5% - 25%✔️ 용도🎁 오랜만에 만나뵙는 가족친지분들과의 시간을 앞두고 1병🎁 일상을 함께한 가족 친구 연인과의 뜻깊은 시간을 위해 1병🎁 1년에 한 번! 특별한 날을 기념하기 위한 나만의 선물로 1병🎁 감사를 표하고 싶은 분들께 마음을 전하는 1병 📌 할인율별 상세 정보는 프로필 링크의 술담화 블로그에서 확인하세요!📌 구매는 담화마켓(www.sooldamhwa.com/shop) 에서 가능합니다.술담화와 함께 보름달처럼 가득 찬 추석 준비해보는 것 어떠세요?🌝</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>좋아요 310개</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>jei_zin</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>술이 이래도 되나요? 이건 웅진에서 나오는 숙취해소음료 꿀홍삼을 흡사 마시는 줄 알았어요.이 정도라면 진짜 나발도 불수있을 듯.하지만 자고로 향과 혀를 감싸는 맛을 같이 느껴야하는고로 차마 병나발은 예의가 아니지 싶다.#술담화 자료에 의하면꿀은 항균. 조혈, 해독 등의 작용을 하고. 위와 장의 소화를 도와주며 신경이 예민한 사람들이 숙면을 취할 수 있게끔 도와주는一그야말로 ‘천연 종합영양체'입니다. 그런 국내산 천연꿀이 들어간. 카카오커머스에서 ‘비밀(Bee훔)'로 한정 출시되었던 꿀술의 반응이 좋아 #꿀샘16 으로 다시 재탄생한 앙코르 제품.#우리술 #전통주 #리큐르 #술샘</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>좋아요 36개</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['#술담화', '#꿀샘16', '#우리술', '#전통주', '#리큐르', '#술샘']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>homelivingkorea</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>#아는만큼맛있다코로나 19의 장기화로 한정된 생활 반경.이를 보완해주는 정기 구독 서비스가 인기입니다.⠀프리미엄 과일을 구독할 수 있는 #진짜맛있는과일집으로 찾아오는 우리 술 #술담화달콤한 일상 #월간쿠키똑똑한 채소습관 #샐러딩 까지.⠀고급 미식 생활을 영위할 수 있는 특별한 구독 서비스를&lt;행복&gt;이 엄선했습니다.⠀#행복이가득한집 #homelivingkorea #구독 #음식구독 #정기구독 #과일구독 #술구독 #쿠키구독 #채소구독</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>좋아요 304개</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['#아는만큼맛있다코로나', '#진짜맛있는과일집으로', '#술담화달콤한', '#월간쿠키똑똑한', '#샐러딩', '#행복이가득한집', '#homelivingkorea', '#구독', '#음식구독', '#정기구독', '#과일구독', '#술구독', '#쿠키구독', '#채소구독']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>swchoi85</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>#술담화 #구독 #추가구매 #인생은술</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>좋아요 4개</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['#술담화', '#구독', '#추가구매', '#인생은술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>bbang_ji_0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>뷰맛집.....@jess_ggo 집들이코스요리 만-족종종 찾아가겠다^♡^#집들이 #뷰맛집 #코스요리 #취향저격#떡볶이 #골뱅이무침 #닭꼬치 #콘샐러드 #김볶밥#집들이엔 #술담화 #매실원주#이집서비스좋네👍</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>좋아요 29개</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['#집들이', '#뷰맛집', '#코스요리', '#취향저격', '#떡볶이', '#골뱅이무침', '#닭꼬치', '#콘샐러드', '#김볶밥', '#집들이엔', '#술담화', '#매실원주', '#이집서비스좋네👍']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>seha_handmaker</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>#담금주키트 #모히또 #술담화</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>좋아요 5개</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['#담금주키트', '#모히또', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>eileen0516</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>--#주말마무리--뭔가 일요일은 시간이 3.5배쯤 빨리 흐르는것 같다.종일 평일에 먹일 반찬만 만든거 같은데해놓고보면 몇가지 없는거 같고ㅠㅠ전처럼 다같이 외식하는게 불가능하니집에서 다같이 먹는 #샤브샤브 는확실히 더 푸짐하게(고기만2근) 양껏 먹을수 있어 좋지만 식당처럼 수저놓고 나오는 시스템이 아닌게 맘에 안들고누가 운전할건지 눈치게임 안하고 사이좋게 나눠마시는 약주로 다시 일주일을 살아낼 힘을 얻는다.--#일요일끝#술담화#홍삼명주#오징어숙회#홈쿡#집밥#주말스타그램#모도리---참,몇년만에 꺼낸 휴대용버너를 보니(그보다 더 몇년전에 갔던 후쿠오카에서짐스럽게 구지 사왔던 무지의 휴대용버너)참 쓸때없이 부지런하고 쓸때없이 힘을썼구나 싶다..지금은 더 이쁘고 더 아기자기한 버너들이 많은데몇년만 참고 기다렸으면 힘안들이고 원하는걸 샀을텐데ㅋㅋ다시 떠날수 있을까 싶은 요즘,나름 추억이 떠오른다..#지금알고있는걸그때도알았더라면</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>좋아요 31개</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['#주말마무리--뭔가', '#샤브샤브', '#일요일끝', '#술담화', '#홍삼명주', '#오징어숙회', '#홈쿡', '#집밥', '#주말스타그램', '#모도리---참', '#지금알고있는걸그때도알았더라면']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rec_shin.zzang</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2020.09.04 08:30 PM.금욜 후딱 퇴근하고~안주 포장하고~집에서 전통주 한 잔 🍶🍶🍶🍶.고유 &amp; 소고기 모듬 냉채 !!.코스 요리로 치면 산뜻 하게 시작하는 에피타이저 같은 느낌??.술도 너무 산뜻하고 안주도 겨자 베이스 냉채라 좀 겹칠듯 하지만 넘치는 산미랑 은은한 유자 향이 입안을 금새 깨끗이 씻겨주는 느낌!!.#야매사진가 #shin짱 .#주말 #불금 #전통주 #술담화 #고유 #고흥유자주 #소고기모듬냉채 #일상 #dish #liquor #citrus</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>좋아요 50개</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>부산 Busan</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['#야매사진가', '#shin짱', '#주말', '#불금', '#전통주', '#술담화', '#고유', '#고흥유자주', '#소고기모듬냉채', '#일상', '#dish', '#liquor', '#citrus']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
